--- a/src/analysis_examples/circadb/results_lomb/cosinor_10368935_qrsl1_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10368935_qrsl1_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2521880629730764, 0.4011985560474507]</t>
+          <t>[0.25416458150484, 0.3992220375156871]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>9.499512954036504e-09</v>
+        <v>6.00917049453642e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>9.499512954036504e-09</v>
+        <v>6.00917049453642e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-0.3773684869176925</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.44739044038519815, 0.5310832316485926]</t>
+          <t>[0.44743172973349277, 0.531041942300298]</t>
         </is>
       </c>
       <c r="U2" t="n">
